--- a/183c2-people-and-cell-phones/183c_tables_info.xlsx
+++ b/183c2-people-and-cell-phones/183c_tables_info.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>people</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>has_one :cell_phone, class_name: "CellPhone", foreign_key: "person_id"</t>
+  </si>
+  <si>
+    <t>183c</t>
+  </si>
+  <si>
+    <t>183c2</t>
+  </si>
+  <si>
+    <t>rake db:dump</t>
   </si>
 </sst>
 </file>
@@ -171,13 +180,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -218,13 +227,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -551,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,43 +574,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -613,21 +600,21 @@
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>12345</v>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -641,20 +628,20 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="4">
-        <v>23456</v>
+        <v>12345</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -668,20 +655,20 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4">
-        <v>34567</v>
+        <v>23456</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -694,12 +681,22 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>34567</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -711,9 +708,7 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,9 +725,10 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -748,10 +744,9 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -767,7 +762,9 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -784,9 +781,7 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -803,9 +798,10 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -821,12 +817,13 @@
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -840,7 +837,9 @@
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -874,15 +873,15 @@
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -893,21 +892,15 @@
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -918,20 +911,20 @@
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="A18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="B18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
-        <v>12345</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
+      <c r="E18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -944,19 +937,19 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>23456</v>
+        <v>12345</v>
       </c>
       <c r="F19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -969,19 +962,19 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>34567</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>10</v>
+        <v>23456</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -993,13 +986,21 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="A21" s="4">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>34567</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1010,9 +1011,7 @@
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1029,9 +1028,10 @@
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1047,34 +1047,34 @@
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1090,10 +1090,9 @@
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1107,6 +1106,25 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
